--- a/public/fourpages.xlsx
+++ b/public/fourpages.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendantwhite/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendantwhite/code/caliad/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BE689A-4AC8-5A4E-B47C-34890A09DA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56975F62-FFA3-CF47-A073-A1B77E62BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{0FC424BA-6D42-DC48-A28D-34AC25304AEF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{0FC424BA-6D42-DC48-A28D-34AC25304AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$69</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="23">
   <si>
     <t>Saturday September 2, 2023 - 11.00AM</t>
   </si>
@@ -50,36 +50,12 @@
     <t>March</t>
   </si>
   <si>
-    <t>Innovation (SA)</t>
-  </si>
-  <si>
-    <t>Ridgehaven (SA)</t>
-  </si>
-  <si>
-    <t>Marden (SA)</t>
-  </si>
-  <si>
     <t>Clubs</t>
   </si>
   <si>
-    <t>Innovation 3 (SA)</t>
-  </si>
-  <si>
-    <t>AVV (SA)</t>
-  </si>
-  <si>
-    <t>Reynella Braeview (SA)</t>
-  </si>
-  <si>
-    <t>Plympton Halifax (SA)</t>
-  </si>
-  <si>
     <t>Exercises</t>
   </si>
   <si>
-    <t>Revnella Braeview (SA)</t>
-  </si>
-  <si>
     <t>Rods</t>
   </si>
   <si>
@@ -111,6 +87,27 @@
   </si>
   <si>
     <t>seq</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>Ridgehaven</t>
+  </si>
+  <si>
+    <t>Marden</t>
+  </si>
+  <si>
+    <t>AVV</t>
+  </si>
+  <si>
+    <t>Reynella Braeview</t>
+  </si>
+  <si>
+    <t>Plympton Halifax</t>
   </si>
 </sst>
 </file>
@@ -471,13 +468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9E024-38A4-AE47-9723-E7E20708CC7E}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,149 +485,171 @@
     <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -641,16 +660,19 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -661,16 +683,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -681,16 +706,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -701,16 +729,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -721,16 +752,19 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -741,16 +775,19 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -761,16 +798,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -781,16 +821,19 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -801,16 +844,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -821,16 +867,19 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -841,16 +890,19 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -861,16 +913,19 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -881,16 +936,19 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -901,16 +959,19 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -921,16 +982,19 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -941,16 +1005,19 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -961,16 +1028,19 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -981,16 +1051,19 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1001,16 +1074,19 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1021,16 +1097,19 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1041,16 +1120,19 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1061,16 +1143,19 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1081,16 +1166,19 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1101,16 +1189,19 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1121,16 +1212,19 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1141,24 +1235,27 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1167,38 +1264,44 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1207,18 +1310,21 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
@@ -1227,18 +1333,21 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -1247,18 +1356,21 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
@@ -1267,611 +1379,704 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>17</v>
       </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
         <v>17</v>
       </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
         <v>17</v>
       </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="F54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E57">
         <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
         <v>17</v>
       </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61">
-        <v>4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
         <v>17</v>
       </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66">
-        <v>3</v>
-      </c>
-      <c r="F66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E67">
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{51A9E024-38A4-AE47-9723-E7E20708CC7E}">
+  <autoFilter ref="A1:G69" xr:uid="{51A9E024-38A4-AE47-9723-E7E20708CC7E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G69">
       <sortCondition ref="A1:A69"/>
     </sortState>
